--- a/publipostage/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
+++ b/publipostage/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NCT00393003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NCT00392158</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Target-controlled Infusion of Propofol and Remifentanil for Postoperative Sedation Guided by the Bispectral Index: Comparison Between Manual Perfusion and Automated Perfusion</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by the Index Bispectral: Comparison Between Manual Perfusion and Automated Perfusion</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00391885</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by Entropy of the Electroencephalogram: Comparison Between Manual Perfusion and Automated Perfusion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -554,28 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT00392158</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT00393003</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by the Index Bispectral: Comparison Between Manual Perfusion and Automated Perfusion</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Target-controlled Infusion of Propofol and Remifentanil for Postoperative Sedation Guided by the Bispectral Index: Comparison Between Manual Perfusion and Automated Perfusion</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -587,28 +607,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT00571181</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Target-Controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by the Index Bispectral: Comparison Between Manual Perfusion and Automated Perfusion During Rigid Bronchoscopy</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -620,32 +645,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00547209</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2007-001677-28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Anesthésie Totale Intraveineuse en " Boucle d'Asservissement " guidée Par l'Index Bispectral : Effet de l'Adjonction de Protoxyde d'Azote (Effect of Nitrous Oxide on Intravenous Closed-loop Anesthesia)</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Drone-N2O</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+          <t>Evaluation de l’effet anesthésique du protoxyde d’azote dans une population d’opérés recevant une anesthésie totale intraveineuse en « boucle » guidée par l’index bispectral (Effect of nitrous oxide on intra-venous closed-loop anesthesia)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Drone-Proto</t>
+        </is>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -655,34 +685,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2007-001677-28</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+          <t>NCT00547209</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Evaluation de l’effet anesthésique du protoxyde d’azote dans une population d’opérés recevant une anesthésie totale intraveineuse en « boucle » guidée par l’index bispectral (Effect of nitrous oxide on intra-venous closed-loop anesthesia)</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Drone-Proto</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Anesthésie Totale Intraveineuse en " Boucle d'Asservissement " guidée Par l'Index Bispectral : Effet de l'Adjonction de Protoxyde d'Azote (Effect of Nitrous Oxide on Intravenous Closed-loop Anesthesia)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Drone-N2O</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -694,28 +729,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT00921284</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Closed-Loop Delivery of Propofol and Remifentanil: Sparing Effect of Dexmedetomidine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -727,29 +767,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT00772616</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT01058525</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Influence of Intraoperative Analgesia (Sufentanil Administered According to the Usual Criteria or Remifentanil Administered by a Closed-loop System Using Bispectral Index as the Controller) on the Postoperative Morphine Consumption</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Influence of Ultrasonographic Hydro-dissection With Glucose 5% Solution on Median Nerve Block Efficiency: a Prospective and Randomized Study</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hydro-Echo</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -760,32 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT01041872</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT00627081</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Lidocaine</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Propofols</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+          <t>Intravenous Opioid-sparing Effect of Thoracic Epidural Administration of Chirocaine (5 mg/ml) During Thoracotomy</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Drone-APDT</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -797,32 +851,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT01161004</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT01321580</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Pilot Study of EEG Signs of Awakening Secondary to Injection of Sugammadex: Evaluation by Recording Bispectral Index and NeuroSENSE (Prospective, Double-blind Study)</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sugarecovery</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
+          <t>Comparison of the Hemoglobin Results Obtained With the Masimo Pronto 7 and the Clinical Laboratory Measurement Study</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -834,33 +889,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT01058525</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT01041872</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Influence of Ultrasonographic Hydro-dissection With Glucose 5% Solution on Median Nerve Block Efficiency: a Prospective and Randomized Study</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hydro-Echo</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Lidocaine</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Propofols</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -871,97 +931,109 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT00627081</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT00772616</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Intravenous Opioid-sparing Effect of Thoracic Epidural Administration of Chirocaine (5 mg/ml) During Thoracotomy</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Drone-APDT</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+          <t>Influence of Intraoperative Analgesia (Sufentanil Administered According to the Usual Criteria or Remifentanil Administered by a Closed-loop System Using Bispectral Index as the Controller) on the Postoperative Morphine Consumption</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT00809393</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT01161004</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Comparison of Two Tranexamic Acid Dose Regimens on Transfusion Needs During Cardiac Surgery With Cardiopulmonary Bypass</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Exacylcardio</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Pilot Study of EEG Signs of Awakening Secondary to Injection of Sugammadex: Evaluation by Recording Bispectral Index and NeuroSENSE (Prospective, Double-blind Study)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sugarecovery</t>
+        </is>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT01321580</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT00809393</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Comparison of the Hemoglobin Results Obtained With the Masimo Pronto 7 and the Clinical Laboratory Measurement Study</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="b">
-        <v>0</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Comparison of Two Tranexamic Acid Dose Regimens on Transfusion Needs During Cardiac Surgery With Cardiopulmonary Bypass</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Exacylcardio</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -969,6 +1041,9 @@
       <c r="I15" t="b">
         <v>1</v>
       </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -978,103 +1053,118 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>NCT03357900</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Closed-loop Anaesthesia for Liver Transplantation: a Pilot Study</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>THConcentr</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT01750970</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01782846</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Endoscopic Resection of High Grade(TA, T1, Cis)Non-muscle Invasive Bladder Tumors: Modification of Usual Management of This Resection by Using the Blue Light and Evaluation of the Outcome: Should we Maintain the Dogma of Second Endoscopic Resection as a Principle?</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="b">
-        <v>1</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Double Blind-randomized Study Comparing the Efficacy of Two Analgesia (Ixprim® and Dafalgan-Codeine®) , in the Emergency Unit.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Trama-Code</t>
+        </is>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT01782846</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT01750970</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Double Blind-randomized Study Comparing the Efficacy of Two Analgesia (Ixprim® and Dafalgan-Codeine®) , in the Emergency Unit.</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trama-Code</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
+          <t>Endoscopic Resection of High Grade(TA, T1, Cis)Non-muscle Invasive Bladder Tumors: Modification of Usual Management of This Resection by Using the Blue Light and Evaluation of the Outcome: Should we Maintain the Dogma of Second Endoscopic Resection as a Principle?</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1085,32 +1175,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>NCT01648725</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Influence of Hypnosis on the Propofol Requirement to Induce General Anesthesia</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>LoopHypnosis</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1122,66 +1217,76 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>NCT00969683</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Comparison Between Left Double-lumen Tube With or Without a Carinal Hook During Lung Surgery</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT01654913</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT02663284</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Influence of the Inspired Oxygen Fraction on the Noninvasive Measurement of Hemoglobin Using Two Different Devices (Namely Pronto 7 and NBM-200)</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hb-O2</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Evaluation of Non-invasive Monitor of Physiodoloris Pain in Patients With Complex Regional Pain Syndrome Treated by Nerve Block (Prospective Monocenter Study)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ANI-ALGO</t>
+        </is>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1192,28 +1297,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT02986880</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT01949181</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>A Dose-response, Randomized, Double-blind Study to Evaluate the Effect of Type-A Botulinum Toxin in the Post-radiosurgical Neck Contractures</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="b">
-        <v>0</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Relationship Between Blood, Hair and Lung Metals/Metalloids Concentration (Cadmium, Iron, Copper, Nickel, Chrome, Arsenic, Vanadium, Beryllium, and Zinc) and Lung Cancer or Chronic Obstructive Pulmonary Disease.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Métaux/Poumons</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1225,70 +1339,80 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT02077101</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT01791166</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Representations and Acceptability of HIV Therapeutic Vaccine in a Cohort of HIV-1 Infected Outpatients Followed at Hospital : Multicentric Interventional Study Qualitative and Quantitative</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RAVVIH</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Humoral Rejection - Diagnostic Markers in Pulmonary Transplant.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>RHUM-TP</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT01949181</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT01654913</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Relationship Between Blood, Hair and Lung Metals/Metalloids Concentration (Cadmium, Iron, Copper, Nickel, Chrome, Arsenic, Vanadium, Beryllium, and Zinc) and Lung Cancer or Chronic Obstructive Pulmonary Disease.</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Métaux/Poumons</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Influence of the Inspired Oxygen Fraction on the Noninvasive Measurement of Hemoglobin Using Two Different Devices (Namely Pronto 7 and NBM-200)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hb-O2</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1299,32 +1423,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT02040948</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
+          <t>2010-020067-20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Accuracy of Pulse Pressure Variation (Nexfin) and of Pleth Variability Index (Radical 7) to Predict the Response to a Fluid Challenge: Comparison With the Reference Method (Measurement of Stroke Volume by Esophageal Doppler)</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nexfin2</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>A multicentre phase II trial to determine the efficacy of RAD 001 (everolimus, Afinitor®) as second line therapy in patients with transitional cell carcinoma (TCC) of the urothelium which failed or progressed after first line chemotherapy.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>AFINIVEST</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1336,33 +1465,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT01592162</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT02077101</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Remifentanil</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PropofolRemi</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Representations and Acceptability of HIV Therapeutic Vaccine in a Cohort of HIV-1 Infected Outpatients Followed at Hospital : Multicentric Interventional Study Qualitative and Quantitative</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>RAVVIH</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1373,32 +1507,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT01791166</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT02951442</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Humoral Rejection - Diagnostic Markers in Pulmonary Transplant.</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>RHUM-TP</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Identification of Markers (Klotho-FGF23 Axis) as Determinant in the Evolution of Arterial Stiffness During the First Year of Renal Transplant</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>KLOTHO</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1410,32 +1549,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>NCT02934295</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Study of Rubella Immunity. Response to Vaccination of Subjects With Very Low, Equivocal or Undetectable Titers of Rubella Virus Antibodies</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>ImmRubVac</t>
         </is>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1447,32 +1591,33 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT01801137</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT02986880</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>A Multicentre Phase III Trial to Determine the Efficacy of RAD 001 (Everolimus, Afinitor) as Second Line Therapy in Patients With Transitional Cell Carcinoma TCC of the Urothelium Which Failed or Progressed After First Line Chemotherapy</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AFINIVEST</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
+          <t>A Dose-response, Randomized, Double-blind Study to Evaluate the Effect of Type-A Botulinum Toxin in the Post-radiosurgical Neck Contractures</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1482,34 +1627,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2010-020067-20</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+          <t>NCT01592162</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>A multicentre phase II trial to determine the efficacy of RAD 001 (everolimus, Afinitor®) as second line therapy in patients with transitional cell carcinoma (TCC) of the urothelium which failed or progressed after first line chemotherapy.</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AFINIVEST</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Remifentanil</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PropofolRemi</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1521,32 +1671,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT02663284</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT02040948</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Evaluation of Non-invasive Monitor of Physiodoloris Pain in Patients With Complex Regional Pain Syndrome Treated by Nerve Block (Prospective Monocenter Study)</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ANI-ALGO</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Accuracy of Pulse Pressure Variation (Nexfin) and of Pleth Variability Index (Radical 7) to Predict the Response to a Fluid Challenge: Comparison With the Reference Method (Measurement of Stroke Volume by Esophageal Doppler)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Nexfin2</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1558,32 +1713,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02951442</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT01801137</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Identification of Markers (Klotho-FGF23 Axis) as Determinant in the Evolution of Arterial Stiffness During the First Year of Renal Transplant</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>KLOTHO</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>A Multicentre Phase III Trial to Determine the Efficacy of RAD 001 (Everolimus, Afinitor) as Second Line Therapy in Patients With Transitional Cell Carcinoma TCC of the Urothelium Which Failed or Progressed After First Line Chemotherapy</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>AFINIVEST</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1595,65 +1755,79 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT01807975</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT01154738</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>OSCILLOPOUMON</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Influence of Lidocaine on a Closed-Loop Anesthesia System</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>LoopLido</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT02245789</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT01891838</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Does the Use of a Videolaryngoscope Modifies Anesthetic Induction ?</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MGM-PicRemi</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Transsphenoidal Surgery for Pituitary Adenomas: Influence of the Ventilation Mode on Intraoperative Bleeding</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Vent-Hyp</t>
+        </is>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1665,32 +1839,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT00886418</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT02593344</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Effect of Continuous Myorelaxation on the Need for Hypnotic Agent During Surgical Procedures Which do Not Require it (Multicenter, Randomized and Prospective Study)</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Drone-Curare</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>Peripheral Endothelial Function in Asthmatic Patients</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Endothasthm</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1702,32 +1881,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT02564185</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT01597466</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Prospective, Randomized Study of the Impact of a Education Program for Patients Suffering From Low Back Pain</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TENS</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>A Comparison Study of Two Different Techniques for Identifying the Epidural Space in Patients Requiring Thoracic Epidural Analgesia: a Prospective Multicentric Randomized Study</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Epidrum-Tho</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1739,64 +1923,71 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT01579851</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT01198639</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Recovery After Sugammadex(TIVA Using Propofol vs Inhalation Anesthesia Using Sevoflurane)</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sugammadex2</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>One-year Mortality According to the Method of Total Intravenous Anesthesia. A Prospective, Randomized and Multicenter Study</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ELA</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT01198639</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT02245789</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>One-year Mortality According to the Method of Total Intravenous Anesthesia. A Prospective, Randomized and Multicenter Study</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ELA</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Does the Use of a Videolaryngoscope Modifies Anesthetic Induction ?</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MGM-PicRemi</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1804,6 +1995,9 @@
       <c r="I38" t="b">
         <v>1</v>
       </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1813,32 +2007,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT02593344</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT02564185</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Peripheral Endothelial Function in Asthmatic Patients</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Endothasthm</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Prospective, Randomized Study of the Impact of a Education Program for Patients Suffering From Low Back Pain</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>TENS</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1850,33 +2049,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT01891838</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT01579851</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Transsphenoidal Surgery for Pituitary Adenomas: Influence of the Ventilation Mode on Intraoperative Bleeding</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vent-Hyp</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>Recovery After Sugammadex(TIVA Using Propofol vs Inhalation Anesthesia Using Sevoflurane)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Sugammadex2</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1887,32 +2091,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT01597466</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT00886418</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>A Comparison Study of Two Different Techniques for Identifying the Epidural Space in Patients Requiring Thoracic Epidural Analgesia: a Prospective Multicentric Randomized Study</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Epidrum-Tho</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Effect of Continuous Myorelaxation on the Need for Hypnotic Agent During Surgical Procedures Which do Not Require it (Multicenter, Randomized and Prospective Study)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Drone-Curare</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1924,32 +2133,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT01154738</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02902471</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Influence of Lidocaine on a Closed-Loop Anesthesia System</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>LoopLido</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>Functional Evaluation of Distal Airways by Forced Oscillations: Diagnosis Help in Bronchiolitis Obliterans Syndrome in Post Bone Marrow Transplantation</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>OSCILLOMOELL</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1961,107 +2175,118 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>NCT02249364</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Interest of Hypnosis Before the Induction of Anesthesia. Study in Women Submitted to One Day Gynecological Surgical Procedures</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Hypnose2</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02902471</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT01876290</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Functional Evaluation of Distal Airways by Forced Oscillations: Diagnosis Help in Bronchiolitis Obliterans Syndrome in Post Bone Marrow Transplantation</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>OSCILLOMOELL</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Should we Associate Dexamethasone and Ondansetron to Closed-loop Anesthesia to Reduce the Incidence of Postoperative Nausea and Vomiting After Bariatric Surgery?</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Loop-NVPO</t>
+        </is>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT01876290</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT01807975</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Should we Associate Dexamethasone and Ondansetron to Closed-loop Anesthesia to Reduce the Incidence of Postoperative Nausea and Vomiting After Bariatric Surgery?</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Loop-NVPO</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>OSCILLOPOUMON</t>
+        </is>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2072,28 +2297,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT02778243</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT02905695</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>STERPROSER</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Contribution of the Local Infiltration of Chirocaine® in the Management of the Post-partum Perineal Pain After Episiotomy or First-degree Tear</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>EPISIO</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2105,32 +2339,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT02899494</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02906436</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Effect of the "Adjusted Vocal Expression" Method on the Satisfaction of Parturients About Their Childbirth (NaîtreEnchanté)</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NaitreEnchan</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Pilot Study of Lung Transplantation After Ex-Vivo Lung Reconditioning</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ExVivo</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2142,33 +2381,38 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT01732133</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT02899494</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Evaluation of the System NEXFIN for Continuous and Non-invasive Measure of the Blood Pressure During Cesarean Delivery Practised Under Spinal Anesthesia</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NEXFIN-CESAR</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>Effect of the "Adjusted Vocal Expression" Method on the Satisfaction of Parturients About Their Childbirth (NaîtreEnchanté)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NaitreEnchan</t>
+        </is>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2179,32 +2423,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT02905695</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT02902627</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Contribution of the Local Infiltration of Chirocaine® in the Management of the Post-partum Perineal Pain After Episiotomy or First-degree Tear</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>EPISIO</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+          <t>Pain in Oncolgy: Evaluation of a Non Invasive Monitoring Device (ANI). A Monocentric Prospective Study</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ANIONCO</t>
+        </is>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2216,33 +2465,38 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT02906436</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT02834273</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Pilot Study of Lung Transplantation After Ex-Vivo Lung Reconditioning</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ExVivo</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+          <t>Impact of Patient Education Following a Stroke on Knowledge of Risk Factors, Stroke Warning Signs and What to do in Cases of Stroke</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>EPIC</t>
+        </is>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2253,33 +2507,38 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT02902627</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT01732133</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Pain in Oncolgy: Evaluation of a Non Invasive Monitoring Device (ANI). A Monocentric Prospective Study</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ANIONCO</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
+          <t>Evaluation of the System NEXFIN for Continuous and Non-invasive Measure of the Blood Pressure During Cesarean Delivery Practised Under Spinal Anesthesia</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NEXFIN-CESAR</t>
+        </is>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2290,33 +2549,38 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT02793245</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT02290054</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Influence of Patient Characteristics on the Tracheobronchial Anatomy Evaluated by a CT Examination</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Scan-Bronchi</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Auriculotherapy for Prevention of Postoperative Urinary Retention in Men Receiving Postoperative Epidural Analgesia After Thoracic Surgery</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>RUPO</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2327,33 +2591,34 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT02834273</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT02778243</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Impact of Patient Education Following a Stroke on Knowledge of Risk Factors, Stroke Warning Signs and What to do in Cases of Stroke</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>EPIC</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>STERPROSER</t>
+        </is>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2364,33 +2629,38 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT02290054</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT02793245</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Auriculotherapy for Prevention of Postoperative Urinary Retention in Men Receiving Postoperative Epidural Analgesia After Thoracic Surgery</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>RUPO</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Influence of Patient Characteristics on the Tracheobronchial Anatomy Evaluated by a CT Examination</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Scan-Bronchi</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2401,32 +2671,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT02897882</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02878551</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Acute and Chronic Pain in Lung Transplantation: Prevalence, Associated Factors, Medical Care</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MUCODOULEUR</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+          <t>Evaluation of the Benefits of a Program of Prehabilitation: Pilot Study</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>PrehabPilote</t>
+        </is>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2438,32 +2713,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>NCT02593357</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Assessment of a Peripheral Endothelial Dysfunction in COPD (Chronic Obstructive Pulmonary Disease)</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>endothBPCO</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2475,32 +2755,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT02878551</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT02897882</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Evaluation of the Benefits of a Program of Prehabilitation: Pilot Study</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PrehabPilote</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Acute and Chronic Pain in Lung Transplantation: Prevalence, Associated Factors, Medical Care</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MUCODOULEUR</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2512,32 +2797,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT00896714</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT02934308</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Impact of Environmental and Demographic Factors on Pre-operative Doses of Anesthetic Agents (Prospective Multicenter Study)</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PosoAnes</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+          <t>Comparison of the Skin Conductance Values and Patient Pain Scores During Minor Procedures in the ICU</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ICUPAIN</t>
+        </is>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2549,32 +2839,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT02934308</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT02413632</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Comparison of the Skin Conductance Values and Patient Pain Scores During Minor Procedures in the ICU</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ICUPAIN</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Asymptomatic Sexually Transmitted Infections (STI) : Comparison of Two Screening Strategies Routine Screening Versus Screening as Reported by the Risks Taken by the Patient, in a Cohort of HIV Outpatients Men Who Have Sex With Men</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>DRIVER</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2586,32 +2881,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT02413632</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT00896714</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Asymptomatic Sexually Transmitted Infections (STI) : Comparison of Two Screening Strategies Routine Screening Versus Screening as Reported by the Risks Taken by the Patient, in a Cohort of HIV Outpatients Men Who Have Sex With Men</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DRIVER</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Impact of Environmental and Demographic Factors on Pre-operative Doses of Anesthetic Agents (Prospective Multicenter Study)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>PosoAnes</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2623,33 +2923,38 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT02438657</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT03359512</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Ultrasound-guided Median Nerve Block With Dextrose 5% Hydrodissection: Determination of the Minimal Effective Volume of Local Anesthetic</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>VMAL</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>Comparison of Two Electroencephalograms (EEG) Monitors in Patients Undergoing General Anesthesia With Sevoflurane</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Bis-qCon-Hal</t>
+        </is>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2660,70 +2965,80 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT03753217</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT02237976</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Assessment of the Depth of Anesthesia During Intravenous Anesthesia: Comparison of the Bispectral Index Monitor and the qCON Monitor.</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bis-qCON-IV</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
+          <t>Interest of Learning Self-hypnosis in Patients Awaiting Lung Transplantation</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>SelfHypTp</t>
+        </is>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02362815</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT02853188</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Fluid Intake During Labour, Ultrasound Evaluation</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>EGTO</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
+          <t>Does the Measure of the Plasma Tissue Factor Allow to Predict a Venous Thromboembolism Episode for Patients Presenting a Primitive Lung Cancer?</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FT-KBP</t>
+        </is>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2734,33 +3049,38 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT02853188</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT02438657</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Does the Measure of the Plasma Tissue Factor Allow to Predict a Venous Thromboembolism Episode for Patients Presenting a Primitive Lung Cancer?</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>FT-KBP</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Ultrasound-guided Median Nerve Block With Dextrose 5% Hydrodissection: Determination of the Minimal Effective Volume of Local Anesthetic</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>VMAL</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2771,107 +3091,122 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT03359512</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT03753217</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Comparison of Two Electroencephalograms (EEG) Monitors in Patients Undergoing General Anesthesia With Sevoflurane</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bis-qCon-Hal</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
+          <t>Assessment of the Depth of Anesthesia During Intravenous Anesthesia: Comparison of the Bispectral Index Monitor and the qCON Monitor.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Bis-qCON-IV</t>
+        </is>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT02237976</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT02362815</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Interest of Learning Self-hypnosis in Patients Awaiting Lung Transplantation</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SelfHypTp</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Fluid Intake During Labour, Ultrasound Evaluation</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>EGTO</t>
+        </is>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT02926144</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT02928003</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Can the Use of the McGRATH® MAC Videolaryngoscope Decrease the Number of People Required for Tracheal Intubation in a Population of Patients Without Predicted Difficult Intubation?</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MGM3</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>Chronic Neuropathic Pain After Lung Surgery: Prevalence and Predictive Factors</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>DOLORPOUMON</t>
+        </is>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2882,70 +3217,80 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT03036774</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT03901586</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Quantitative Ultrasound Assessment of Gastric Volume in Diabetic and Non Diabetic Patients Scheduled for a General Anesthesia</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ECHODIABETE</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>Satisfaction and Long-term Anatomic Efficacy Study on Patients Who Underwent a Richter Intervention in the Obstetric and Gynecology Department of Foch Hospital Since 2008</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>RICHTER</t>
+        </is>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT03901586</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT02926144</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Satisfaction and Long-term Anatomic Efficacy Study on Patients Who Underwent a Richter Intervention in the Obstetric and Gynecology Department of Foch Hospital Since 2008</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>RICHTER</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
+          <t>Can the Use of the McGRATH® MAC Videolaryngoscope Decrease the Number of People Required for Tracheal Intubation in a Population of Patients Without Predicted Difficult Intubation?</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>MGM3</t>
+        </is>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2956,32 +3301,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT03991767</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT03036774</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Implementation and Evaluation of an Electronic Alert to Encourage Targeted Screening for HIV Infection at Foch Hospital According to Socio-demographic Criteria: Pilot Study</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>POP-UP</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+          <t>Quantitative Ultrasound Assessment of Gastric Volume in Diabetic and Non Diabetic Patients Scheduled for a General Anesthesia</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>ECHODIABETE</t>
+        </is>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2993,32 +3343,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT02928003</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT03991767</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Chronic Neuropathic Pain After Lung Surgery: Prevalence and Predictive Factors</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>DOLORPOUMON</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Implementation and Evaluation of an Electronic Alert to Encourage Targeted Screening for HIV Infection at Foch Hospital According to Socio-demographic Criteria: Pilot Study</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>POP-UP</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3030,32 +3385,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT03755817</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT04418973</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Immediate Efficacy Assessment of SCENAR's Session on a Common Spinal Pain Syndrome</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SCENAR1</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Analysis of Breath Volatile Organic Compounds After Dyspnea Induced in the Healthy Subject, by a Threshold Inspiratory Load and During a Maximal Breath Holding.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Volatopnee</t>
+        </is>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3067,107 +3427,122 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT04418973</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT03755817</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Analysis of Breath Volatile Organic Compounds After Dyspnea Induced in the Healthy Subject, by a Threshold Inspiratory Load and During a Maximal Breath Holding.</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Volatopnee</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Immediate Efficacy Assessment of SCENAR's Session on a Common Spinal Pain Syndrome</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>SCENAR1</t>
+        </is>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT03167528</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT03290885</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Contribution of Learning and Practice of Different Complementary Therapies in Pulmonary Transplant Patients</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>TOOLBOX</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>Combined Use of Contact Aspiration and the Stent Retriever Technique Versus Stent Retriever Alone for Recanalisation in Acute Cerebral Infarction: the Randomized ASTER2 Study</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ASTER2</t>
+        </is>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT03290885</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT02594059</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Combined Use of Contact Aspiration and the Stent Retriever Technique Versus Stent Retriever Alone for Recanalisation in Acute Cerebral Infarction: the Randomized ASTER2 Study</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ASTER2</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>Assessment of Peripheral Endothelial Function in Idiopathic Pulmonary Fibrosis</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Endoth-FPI</t>
+        </is>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3178,32 +3553,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT02594059</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT03167528</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Assessment of Peripheral Endothelial Function in Idiopathic Pulmonary Fibrosis</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Endoth-FPI</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>Contribution of Learning and Practice of Different Complementary Therapies in Pulmonary Transplant Patients</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>TOOLBOX</t>
+        </is>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3215,70 +3595,80 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>NCT03036761</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Interest of Auriculotherapy in Prophylaxis of Migraine and Headache in Patients With Migraines</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Migauric</t>
         </is>
       </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT04614883</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT02235142</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Analysis of Volatile Organic Compounds in Exhaled Air and in Sweat in Patients Referred to the Emergency Reception Service for Suspected COVID-19 Infection: Diagnostic Value and for Rapid Screening</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>VOC-COVID-Diag</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+          <t>Localised Cancer of Prostate and Androgen Deficiency.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>AndroCan</t>
+        </is>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3289,32 +3679,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT02767791</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT04614883</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Auriculotherapy and Acupuncture's Treatment for Chemotherapy-induced Nausea and Vomiting (CINV)</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NVCI</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Analysis of Volatile Organic Compounds in Exhaled Air and in Sweat in Patients Referred to the Emergency Reception Service for Suspected COVID-19 Infection: Diagnostic Value and for Rapid Screening</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>VOC-COVID-Diag</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3326,32 +3721,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT04726111</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT05009628</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>COVID-19 and Pregnancy: Placental and Immunological Impacts</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MaterCov</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Is Routine Postoperative Oxygen Therapy Still Necessary in 2020?</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>FreeO2</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3363,32 +3763,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT03126136</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT02767791</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Predictive Value of a Postural Test on Pulse Pressure Variation During Labor With Epidural Analgesia on Fetal Heart Rate Abnormalities</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>PP-PERI</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>Auriculotherapy and Acupuncture's Treatment for Chemotherapy-induced Nausea and Vomiting (CINV)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>NVCI</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3400,70 +3805,80 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT04526041</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT04726111</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Language and Music, Speech and the Human Beatbox: Theoretical Issues for Research in General and Applied Linguistics; Monocentric Exploratory Study</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HBB</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>COVID-19 and Pregnancy: Placental and Immunological Impacts</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>MaterCov</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT02235142</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT04379154</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Localised Cancer of Prostate and Androgen Deficiency.</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>AndroCan</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
+          <t>Analysis of Volatile Organic Compounds by Electronic Noses in Hospitalised Patients for an Infection by (SARS-CoV-2): Predictive Interest in Short-term Evolution</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>VOC-COVID</t>
+        </is>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3474,32 +3889,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT04379154</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT04526041</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Analysis of Volatile Organic Compounds by Electronic Noses in Hospitalised Patients for an Infection by (SARS-CoV-2): Predictive Interest in Short-term Evolution</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>VOC-COVID</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Language and Music, Speech and the Human Beatbox: Theoretical Issues for Research in General and Applied Linguistics; Monocentric Exploratory Study</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>HBB</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3511,32 +3931,33 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT05009628</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT04526054</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Is Routine Postoperative Oxygen Therapy Still Necessary in 2020?</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>FreeO2</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
+          <t>Longitudinal and Comparative Study of Morphological Abnormalities of the Olfactory Bulb on MRI and Olfactometry in Anosmic Versus Normosmic COVID-19 Patients</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3548,66 +3969,80 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT04526054</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT03126136</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Longitudinal and Comparative Study of Morphological Abnormalities of the Olfactory Bulb on MRI and Olfactometry in Anosmic Versus Normosmic COVID-19 Patients</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="b">
-        <v>0</v>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Predictive Value of a Postural Test on Pulse Pressure Variation During Labor With Epidural Analgesia on Fetal Heart Rate Abnormalities</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>PP-PERI</t>
+        </is>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT04585178</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT04541511</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Detection of Postoperative Complications and Particularly Hemodynamic Ones Through Continuous Monitoring Using the Biobeat Patch</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Biobeat-Postop</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>1</v>
+          <t>Comparison of the 6-minute Walking Test in a Corridor and on a Non-motorized Treadmill, Feasibility Study</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>TDM6</t>
+        </is>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3618,66 +4053,80 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>NCT04479540</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Assessment of the Risk of Pulmonary Embolism and Coagulation Profile in Patients With SARS Coronavirus (COV-2) Lung Disease</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>COVIDEP</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT02764788</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT04585178</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Fib-Auric</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+          <t>Detection of Postoperative Complications and Particularly Hemodynamic Ones Through Continuous Monitoring Using the Biobeat Patch</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Biobeat-Postop</t>
+        </is>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3688,32 +4137,33 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NCT04613297</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NCT02764788</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>HLA-G Immuno-Inhibitor Checkpoint Study in Patients With COVID-19 Infection: Molecular and Cellular Assessment</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>HLA-G-COVID</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Fib-Auric</t>
+        </is>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3725,32 +4175,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT02988830</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT04613297</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Impact of Subcutaneous Electric Lumbar Stimulation on Treatment of Refractory Chronic and Disabling Lumbago</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>IMESCUT</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>HLA-G Immuno-Inhibitor Checkpoint Study in Patients With COVID-19 Infection: Molecular and Cellular Assessment</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>HLA-G-COVID</t>
+        </is>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3762,32 +4217,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>NCT04165161</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>Performance Diagnosis of a Patent Foramen Ovale During Lung Transplantation Using Transesophageal Echocardiography: Comparison of the Injection of Contrast in the Upper and Lower Caval Territories (FOP-TP)</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>FOP-TP</t>
         </is>
       </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3799,32 +4259,37 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT04541511</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT02988830</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Comparison of the 6-minute Walking Test in a Corridor and on a Non-motorized Treadmill, Feasibility Study</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>TDM6</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+          <t>Impact of Subcutaneous Electric Lumbar Stimulation on Treatment of Refractory Chronic and Disabling Lumbago</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>IMESCUT</t>
+        </is>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3836,32 +4301,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>NCT04880330</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Interest of an Auriculotherapy Session in Smoking Cessation Controlled, Randomized, Single-blind Study: Proof of Concept Study</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>StopAuric</t>
         </is>
       </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3873,32 +4343,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>NCT04821115</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Safety and Efficacy of Low-intensity Shockwave Therapy for Peyronie's Disease</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>ONDELA</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
+++ b/publipostage/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,7 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -720,6 +746,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -758,6 +789,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,6 +836,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -842,6 +883,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,6 +926,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -922,6 +973,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -960,6 +1016,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1002,6 +1063,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1044,6 +1110,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1086,6 +1157,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1127,6 +1203,11 @@
       </c>
       <c r="J17" t="b">
         <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1166,6 +1247,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1208,6 +1294,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1246,6 +1337,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1288,6 +1384,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1330,6 +1431,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1372,6 +1478,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1414,6 +1525,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1456,6 +1572,7 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1498,6 +1615,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1540,6 +1662,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1582,6 +1709,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1620,6 +1752,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1662,6 +1799,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1704,6 +1846,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1746,6 +1893,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1788,6 +1940,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1830,6 +1987,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1872,6 +2034,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1914,6 +2081,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1956,6 +2128,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1998,6 +2175,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2040,6 +2222,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2082,6 +2269,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2124,6 +2316,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2166,6 +2363,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2208,6 +2410,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2250,6 +2457,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2288,6 +2500,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2330,6 +2547,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2372,6 +2594,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2414,6 +2641,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2456,6 +2688,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2498,6 +2735,11 @@
       <c r="J50" t="b">
         <v>1</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2540,6 +2782,11 @@
       <c r="J51" t="b">
         <v>1</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2582,6 +2829,11 @@
       <c r="J52" t="b">
         <v>1</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2620,6 +2872,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2662,6 +2919,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2704,6 +2966,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2746,6 +3013,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2788,6 +3060,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2830,6 +3107,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2872,6 +3154,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2914,6 +3201,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2956,6 +3248,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2998,6 +3295,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3040,6 +3342,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3082,6 +3389,11 @@
       <c r="J64" t="b">
         <v>1</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3124,6 +3436,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3166,6 +3483,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3208,6 +3530,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3250,6 +3577,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3292,6 +3624,11 @@
       <c r="J69" t="b">
         <v>1</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3334,6 +3671,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3376,6 +3718,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3418,6 +3765,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3460,6 +3812,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3502,6 +3859,11 @@
       <c r="J74" t="b">
         <v>1</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>COMBINATION_PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3544,6 +3906,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3586,6 +3953,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3628,6 +4000,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3670,6 +4047,11 @@
       <c r="J78" t="b">
         <v>1</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3712,6 +4094,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3754,6 +4141,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3796,6 +4188,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3838,6 +4235,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3880,6 +4282,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3922,6 +4329,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3960,6 +4372,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4002,6 +4419,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4044,6 +4466,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4086,6 +4513,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4128,6 +4560,11 @@
       <c r="J89" t="b">
         <v>1</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4166,6 +4603,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4208,6 +4650,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4250,6 +4697,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4292,6 +4744,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4334,6 +4791,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4375,6 +4837,11 @@
       </c>
       <c r="J95" t="b">
         <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
   </sheetData>
